--- a/biology/Écologie/Mésologie/Mésologie.xlsx
+++ b/biology/Écologie/Mésologie/Mésologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9sologie</t>
+          <t>Mésologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mésologie est la science des milieux, qui étudie de manière interdisciplinaire et transdisciplinaire la relation des êtres vivants en général, ou des êtres humains en particulier, avec leur milieu de vie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9sologie</t>
+          <t>Mésologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant le sens qu’on donne à « milieu », deux définitions de la mésologie sont possibles :
 Dans son premier sens, le plus ancien, « milieu » désigne un endroit qui, dans un lieu ou un objet, est également distant de la périphérie ou des extrémités. Le milieu de vie est l'endroit où vivent des êtres vivants. Il est donc antonyme d’« environnement », qui définit au contraire "ce qui est autour, aux environs". La première édition du Petit Larousse (1906) définissait la mésologie comme « partie de la biologie qui étudie les rapports des milieux et des organismes ».
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9sologie</t>
+          <t>Mésologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Mésologie : du grec mesos (milieu ou medium), et logos (discours, étude). 
-Histoire et fortune de la mésologie
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mésologie : du grec mesos (milieu ou medium), et logos (discours, étude). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mésologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9sologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Étymologie et histoire du mot et du concept</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire et fortune de la mésologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le terme est proposé en 1848 par le médecin Charles Robin (1821-1885), disciple d’Auguste Comte, dans son discours d’ouverture à la séance inaugurale de la Société de biologie : 
 « L’esprit qui animait les fondateurs de la Société était celui de la philosophie positive. Le 7 juin 1848, Robin lisait un mémoire Sur la direction que se sont proposée en se réunissant les membres fondateurs de la Société de biologie pour répondre au titre qu’ils ont choisi. Robin y exposait la classification comtienne des sciences, y traitait dans l’esprit du Cours [de philosophie positive] des tâches de la biologie, au premier rang desquelles la constitution d’une étude des milieux, pour laquelle Robin inventait même le terme de mésologie. »
-— Georges Canguilhem, Études d’histoire et de philosophie des sciences concernant les vivants et la vie[1]
+— Georges Canguilhem, Études d’histoire et de philosophie des sciences concernant les vivants et la vie
 Par la suite, le terme a été popularisé par Louis-Adolphe Bertillon (1821-1883), membre fondateur de la Société d'anthropologie de Paris. L'anthropologie est alors physique et sociale et la notion de milieu a été très popularisée par Auguste Comte pour placer au centre d'une biologie positive l'Homme dont — selon lui — tout part et auquel tout revient, dans une continuité très élargie de la théorie lamarkienne des interactions des organismes avec leur milieu biologique. De fait, il s'agit de comprendre les interactions générales dans lesquelles l'être humain est pris avec son environnement au sens le plus large : naturel mais aussi culturel.
 L'ambition vaste, très positiviste, d'une telle science la rendra peu à même de se structurer. Le terme écologie fondée en 1866 par Ernst Haeckel dont le registre est restreint aux interactions de l'homme avec son seul milieu naturel connaîtra des applications et une diffusion bien plus large. Au XXe siècle, la mésologie a peu à peu disparu des dictionnaires. 
 Dans le même temps cependant, hors de France, elle était refondée sous un autre jour : en biologie dans les travaux de Jakob von Uexküll (1864-1944), l’un des pères de l’éthologie, et en philosophie dans ceux de Tetsurō Watsuji (1889-1960), qui la désignèrent respectivement par les termes d’Umweltlehre et de fûdogaku. Tous deux partent d’une même distinction entre l’environnement et le milieu, et du même parti de considérer l’être impliqué dans cette relation comme un sujet, non pas comme un objet. Corrélativement, la mésologie du vivant s’accompagne chez Uexküll d’une « théorie de la signification » (Bedeutungslehre), avant-courrière de la biosémiotique, tandis que Watsuji postule que la compréhension des milieux humains (fûdo) exige une approche herméneutique. Il introduit le concept de fûdosei 風土性, qu’il définit comme « le moment structurel de l’existence humaine (ningen sonzai no kôzô keiki 人間存在の構造契機) », à savoir le couplage dynamique de l’individu et de son milieu. Ce concept sera rendu en français par médiance (du latin medietas, moitié).
